--- a/data/dataThongtinHDDCThongTin_case1.xlsx
+++ b/data/dataThongtinHDDCThongTin_case1.xlsx
@@ -73,7 +73,7 @@
     <t>Serial</t>
   </si>
   <si>
-    <t>1C22TGT</t>
+    <t>1C22TBB</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/dataThongtinHDDCThongTin_case1.xlsx
+++ b/data/dataThongtinHDDCThongTin_case1.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
